--- a/Data_2x2_same_decomposition.xlsx
+++ b/Data_2x2_same_decomposition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t xml:space="preserve">n</t>
   </si>
@@ -213,6 +213,120 @@
   </si>
   <si>
     <t xml:space="preserve">[0.28366219+0.j         0.        +0.95892427j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m=nY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[0.+0.j 0.-1.j]
+ [0.+1.j 0.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 0.54030231+0.j  0.84147098+0.j]
+ [-0.84147098+0.j  0.54030231+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.34544332+0.j -0.07529217+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.54030231+0.j -0.84147098+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.707106781+0.j         0.-0.70710678j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[0.+0.j 0.-2.j]
+ [0.+2.j 0.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-0.41614684+0.j  0.90929743+0.j]
+ [-0.90929743-0.j -0.41614684-0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.12328765+0.j -0.33136107+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.41614684+0.j -0.90929743+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[0.+0.j 0.-3.j]
+ [0.+3.j 0.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-0.9899925 +0.j  0.14112001+0.j]
+ [-0.14112001-0.j -0.9899925 -0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.21221812+0.j -0.28277813+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.9899925 +0.j -0.14112001+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[0.+0.j 0.-4.j]
+ [0.+4.j 0.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-0.65364362+0.j -0.7568025 +0.j]
+ [ 0.7568025 +0.j -0.65364362-0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.35261153+0.j  0.02578972+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.65364362+0.j  0.7568025 +0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[0.+0.j 0.-5.j]
+ [0.+5.j 0.+0.j]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[ 0.28366219+0.j -0.95892427+0.j]
+ [ 0.95892427+0.j  0.28366219+0.j]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[-0.16881552+0.j  0.31064662+0.j]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.28366219+0.j 0.95892427+0.j]</t>
   </si>
 </sst>
 </file>
@@ -294,7 +408,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,6 +419,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -324,10 +442,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:N34"/>
+  <dimension ref="A4:N54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N57" activeCellId="0" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,6 +718,127 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>-5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data_2x2_same_decomposition.xlsx
+++ b/Data_2x2_same_decomposition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
   <si>
     <t xml:space="preserve">n</t>
   </si>
@@ -327,6 +327,191 @@
   </si>
   <si>
     <t xml:space="preserve">[0.28366219+0.j 0.95892427+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m=nZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 1.+0.j  0.+0.j]
+ [ 0.+0.j -1.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[0.54030231+0.84147098j 0.        +0.j        ]
+ [0.        +0.j         0.54030231-0.84147098j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.13507558+0.21036775j 0.13507558-0.21036775j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.54030231+0.84147098j 0.        +0.j        ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.24182313e-04+0.j         9.45439299e-01-0.32579822j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 2.+0.j  0.+0.j]
+ [ 0.+0.j -2.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-0.41614684+0.90929743j  0.        +0.j        ]
+ [ 0.        +0.j         -0.41614684-0.90929743j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.10403671+0.22732436j -0.10403671-0.22732436j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.41614684+0.90929743j  0.        +0.j        ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.00226548+0.j         -0.24041334-0.97066796j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 3.+0.j  0.+0.j]
+ [ 0.+0.j -3.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-0.9899925+0.14112001j  0.       +0.j        ]
+ [ 0.       +0.j         -0.9899925-0.14112001j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.24749812+0.03528j -0.24749812-0.03528j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.9899925+0.14112001j  0.       +0.j        ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.16949955e-04+0.j         -3.47400098e-01-0.93771699j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 4.+0.j  0.+0.j]
+ [ 0.+0.j -4.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-0.65364362-0.7568025j -0.        +0.j       ]
+ [ 0.        -0.j        -0.65364362+0.7568025j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.16341091-0.18920062j -0.16341091+0.18920062j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.65364362-0.7568025j  0.        +0.j       ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-9.40089142e-04+0.j          9.68143369e-01-0.25039475j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 5.+0.j  0.+0.j]
+ [ 0.+0.j -5.+0.j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[0.28366219-0.95892427j 0.        -0.j        ]
+ [0.        +0.j         0.28366219+0.95892427j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07091555-0.23973107j 0.07091555+0.23973107j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.28366219-0.95892427j 0.        +0.j        ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.00161394+0.j          0.96816391-0.25031187j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m=n(X+Z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 1  1]
+ [ 1 -1]]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[0.15594369+0.698456j 0.        +0.698456j]
+ [0.        +0.698456j 0.15594369-0.698456j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.03898592+0.349228j 0.03898592+0.j      ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15594369+0.698456j 0.        +0.698456j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.39640356+0.j         -0.91610317+0.06015978j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 2  2]
+ [ 2 -2]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-9.51363128e-01+0.21783962j -4.85722573e-17+0.21783962j]
+ [ 9.02056208e-17+0.21783962j -9.51363128e-01-0.21783962j]]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.23784078+1.08919809e-01j -0.23784078+1.38777878e-17j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-9.51363128e-01+0.21783962j  9.02056208e-17+0.21783962j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.3694638 +0.j         -0.92916505+0.01219919j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 3  3]
+ [ 3 -3]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-4.52661857e-01-0.63051457j -9.46272448e-18-0.63051457j]
+ [-4.47533468e-17-0.63051457j -4.52661857e-01+0.63051457j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11316546-3.15257284e-01j -0.11316546+2.77555756e-17j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-4.52661857e-01-0.63051457j -4.47533468e-17-0.63051457j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.37461878+0.j        -0.9261456 +0.0437619j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 4  4]
+ [ 4 -4]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 8.10183603e-01-0.41448916j  9.83051195e-17-0.41448916j]
+ [-1.68429083e-16-0.41448916j  8.10183603e-01+0.41448916j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.2025459-2.07244581e-01j 0.2025459-4.16333634e-17j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 8.10183603e-01-0.41448916j -1.68429083e-16-0.41448916j]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.38577148+0.j         -0.91731161+0.09858892j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 5  5]
+ [ 5 -5]]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 7.05347906e-01+0.50124063j -2.59394174e-19+0.50124063j]
+ [-2.58889888e-17+0.50124063j  7.05347906e-01-0.50124063j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.17633698+2.50620313e-01j 0.17633698-5.55111512e-17j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 7.05347906e-01+0.50124063j -2.58889888e-17+0.50124063j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.3652941 +0.j         -0.93039717-0.03035349j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m=n(X+Y)</t>
   </si>
 </sst>
 </file>
@@ -408,7 +593,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,6 +603,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,19 +631,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:N54"/>
+  <dimension ref="A4:N102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N57" activeCellId="0" sqref="N57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="50.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="41.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="57.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="59.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="52.8"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,8 +907,8 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -820,7 +1009,7 @@
       <c r="A54" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -839,6 +1028,223 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>-1.4127</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>-2.83448</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N86" s="0" t="n">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="N89" s="0" t="n">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
